--- a/www.eia.gov/electricity/monthly/xls/table_4_07_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_07_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
-    <t>Table 4.7.B. Receipts of Petroleum Liquids Delivered for Electricity Generation by State, (Year-to-Date) October 2016 and 2015</t>
+    <t>Table 4.7.B. Receipts of Petroleum Liquids Delivered for Electricity Generation by State, (Year-to-Date) November 2016 and 2015</t>
   </si>
   <si>
     <t>(Thousand Barrels)</t>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1358,25 +1358,25 @@
         <v>13</v>
       </c>
       <c r="B6" s="13">
-        <v>360</v>
+        <v>498</v>
       </c>
       <c r="C6" s="13">
-        <v>2427</v>
+        <v>2927</v>
       </c>
       <c r="D6" s="14">
-        <v>-0.85</v>
+        <v>-0.83</v>
       </c>
       <c r="E6" s="13">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" s="13">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G6" s="13">
-        <v>283</v>
+        <v>419</v>
       </c>
       <c r="H6" s="13">
-        <v>2363</v>
+        <v>2860</v>
       </c>
       <c r="I6" s="13">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="13">
+        <v>5</v>
+      </c>
+      <c r="L6" s="13">
         <v>4</v>
-      </c>
-      <c r="L6" s="13">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1396,13 +1396,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="16">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C7" s="16">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="D7" s="17">
-        <v>-0.96</v>
+        <v>-0.95</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
@@ -1411,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="16">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H7" s="16">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="I7" s="16">
         <v>0</v>
@@ -1434,10 +1434,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="16">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="16">
-        <v>685</v>
+        <v>870</v>
       </c>
       <c r="D8" s="17">
         <v>-0.97</v>
@@ -1452,7 +1452,7 @@
         <v>18</v>
       </c>
       <c r="H8" s="16">
-        <v>684</v>
+        <v>866</v>
       </c>
       <c r="I8" s="16">
         <v>0</v>
@@ -1461,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="16">
+        <v>5</v>
+      </c>
+      <c r="L8" s="16">
         <v>4</v>
-      </c>
-      <c r="L8" s="16">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1472,25 +1472,25 @@
         <v>16</v>
       </c>
       <c r="B9" s="16">
-        <v>293</v>
+        <v>416</v>
       </c>
       <c r="C9" s="16">
-        <v>867</v>
+        <v>1101</v>
       </c>
       <c r="D9" s="17">
-        <v>-0.66</v>
+        <v>-0.62</v>
       </c>
       <c r="E9" s="16">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="16">
-        <v>227</v>
+        <v>351</v>
       </c>
       <c r="H9" s="16">
-        <v>862</v>
+        <v>1095</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
@@ -1510,16 +1510,16 @@
         <v>17</v>
       </c>
       <c r="B10" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="16">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" s="17">
-        <v>-0.9</v>
+        <v>-0.89</v>
       </c>
       <c r="E10" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="16">
         <v>57</v>
@@ -1548,13 +1548,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="16">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C11" s="16">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D11" s="17">
-        <v>-0.93</v>
+        <v>-0.87</v>
       </c>
       <c r="E11" s="16">
         <v>0</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="16">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H11" s="16">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I11" s="16">
         <v>0</v>
@@ -1624,25 +1624,25 @@
         <v>21</v>
       </c>
       <c r="B13" s="13">
-        <v>765</v>
+        <v>942</v>
       </c>
       <c r="C13" s="13">
-        <v>3423</v>
+        <v>3990</v>
       </c>
       <c r="D13" s="14">
-        <v>-0.78</v>
+        <v>-0.76</v>
       </c>
       <c r="E13" s="13">
-        <v>158</v>
+        <v>275</v>
       </c>
       <c r="F13" s="13">
-        <v>1019</v>
+        <v>1450</v>
       </c>
       <c r="G13" s="13">
-        <v>582</v>
+        <v>631</v>
       </c>
       <c r="H13" s="13">
-        <v>2393</v>
+        <v>2526</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="13">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="L13" s="13">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1665,7 +1665,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="16">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D14" s="17">
         <v>-0.89</v>
@@ -1680,7 +1680,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="16">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
@@ -1700,25 +1700,25 @@
         <v>23</v>
       </c>
       <c r="B15" s="16">
-        <v>440</v>
+        <v>562</v>
       </c>
       <c r="C15" s="16">
-        <v>2390</v>
+        <v>2908</v>
       </c>
       <c r="D15" s="17">
-        <v>-0.82</v>
+        <v>-0.81</v>
       </c>
       <c r="E15" s="16">
-        <v>158</v>
+        <v>275</v>
       </c>
       <c r="F15" s="16">
-        <v>1019</v>
+        <v>1450</v>
       </c>
       <c r="G15" s="16">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H15" s="16">
-        <v>1362</v>
+        <v>1448</v>
       </c>
       <c r="I15" s="16">
         <v>0</v>
@@ -1727,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L15" s="16">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1738,13 +1738,13 @@
         <v>24</v>
       </c>
       <c r="B16" s="16">
-        <v>312</v>
+        <v>367</v>
       </c>
       <c r="C16" s="16">
-        <v>921</v>
+        <v>964</v>
       </c>
       <c r="D16" s="17">
-        <v>-0.66</v>
+        <v>-0.62</v>
       </c>
       <c r="E16" s="16">
         <v>0</v>
@@ -1753,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="16">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="H16" s="16">
-        <v>919</v>
+        <v>961</v>
       </c>
       <c r="I16" s="16">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="16">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L16" s="16">
         <v>3</v>
@@ -1776,25 +1776,25 @@
         <v>25</v>
       </c>
       <c r="B17" s="13">
-        <v>823</v>
+        <v>942</v>
       </c>
       <c r="C17" s="13">
-        <v>930</v>
+        <v>994</v>
       </c>
       <c r="D17" s="14">
-        <v>-0.12</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
       <c r="E17" s="13">
-        <v>423</v>
+        <v>489</v>
       </c>
       <c r="F17" s="13">
-        <v>592</v>
+        <v>640</v>
       </c>
       <c r="G17" s="13">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="H17" s="13">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="13">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L17" s="13">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1814,25 +1814,25 @@
         <v>26</v>
       </c>
       <c r="B18" s="16">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C18" s="16">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D18" s="17">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="E18" s="16">
         <v>3</v>
       </c>
       <c r="F18" s="16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G18" s="16">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H18" s="16">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I18" s="16">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>27</v>
       </c>
       <c r="B19" s="16">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C19" s="16">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="D19" s="17">
-        <v>-0.35</v>
+        <v>-0.33</v>
       </c>
       <c r="E19" s="16">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F19" s="16">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="G19" s="16">
         <v>0</v>
@@ -1890,20 +1890,20 @@
         <v>28</v>
       </c>
       <c r="B20" s="16">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C20" s="16">
+        <v>164</v>
+      </c>
+      <c r="D20" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="E20" s="16">
+        <v>155</v>
+      </c>
+      <c r="F20" s="16">
         <v>154</v>
       </c>
-      <c r="D20" s="17">
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="E20" s="16">
-        <v>141</v>
-      </c>
-      <c r="F20" s="16">
-        <v>145</v>
-      </c>
       <c r="G20" s="16">
         <v>0</v>
       </c>
@@ -1917,10 +1917,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L20" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1928,25 +1928,25 @@
         <v>29</v>
       </c>
       <c r="B21" s="16">
-        <v>381</v>
+        <v>456</v>
       </c>
       <c r="C21" s="16">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="D21" s="17">
-        <v>-4.9000000000000002E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="E21" s="16">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="F21" s="16">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="G21" s="16">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="H21" s="16">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="I21" s="16">
         <v>0</v>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L21" s="16">
         <v>24</v>
@@ -1966,19 +1966,19 @@
         <v>30</v>
       </c>
       <c r="B22" s="16">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C22" s="16">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D22" s="17">
-        <v>-0.26</v>
+        <v>-0.33</v>
       </c>
       <c r="E22" s="16">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F22" s="16">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G22" s="16">
         <v>4</v>
@@ -2004,19 +2004,19 @@
         <v>31</v>
       </c>
       <c r="B23" s="13">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="C23" s="13">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="D23" s="14">
-        <v>-0.12</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E23" s="13">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="F23" s="13">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="G23" s="13">
         <v>4</v>
@@ -2042,19 +2042,19 @@
         <v>32</v>
       </c>
       <c r="B24" s="16">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C24" s="16">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D24" s="17">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="E24" s="16">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F24" s="16">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G24" s="16">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         <v>33</v>
       </c>
       <c r="B25" s="16">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C25" s="16">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D25" s="17">
-        <v>-0.5</v>
+        <v>-0.48</v>
       </c>
       <c r="E25" s="16">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F25" s="16">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G25" s="16">
         <v>0</v>
@@ -2118,19 +2118,19 @@
         <v>34</v>
       </c>
       <c r="B26" s="16">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C26" s="16">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D26" s="17">
-        <v>0.43</v>
+        <v>-0.15</v>
       </c>
       <c r="E26" s="16">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F26" s="16">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G26" s="16">
         <v>4</v>
@@ -2156,19 +2156,19 @@
         <v>35</v>
       </c>
       <c r="B27" s="16">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C27" s="16">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D27" s="17">
-        <v>-0.22</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E27" s="16">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="F27" s="16">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G27" s="16">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="17">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="E28" s="16">
         <v>3</v>
@@ -2232,19 +2232,19 @@
         <v>37</v>
       </c>
       <c r="B29" s="16">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C29" s="16">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D29" s="17">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="E29" s="16">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F29" s="16">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G29" s="16">
         <v>0</v>
@@ -2270,16 +2270,16 @@
         <v>38</v>
       </c>
       <c r="B30" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30" s="16">
         <v>30</v>
       </c>
       <c r="D30" s="17">
-        <v>-0.92</v>
+        <v>-0.88</v>
       </c>
       <c r="E30" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" s="16">
         <v>30</v>
@@ -2308,25 +2308,25 @@
         <v>39</v>
       </c>
       <c r="B31" s="13">
-        <v>3164</v>
+        <v>3421</v>
       </c>
       <c r="C31" s="13">
-        <v>4374</v>
+        <v>4606</v>
       </c>
       <c r="D31" s="14">
-        <v>-0.28000000000000003</v>
+        <v>-0.26</v>
       </c>
       <c r="E31" s="13">
-        <v>2379</v>
+        <v>2579</v>
       </c>
       <c r="F31" s="13">
-        <v>3073</v>
+        <v>3208</v>
       </c>
       <c r="G31" s="13">
-        <v>600</v>
+        <v>638</v>
       </c>
       <c r="H31" s="13">
-        <v>1035</v>
+        <v>1108</v>
       </c>
       <c r="I31" s="13">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="K31" s="13">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="L31" s="13">
-        <v>266</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2349,10 +2349,10 @@
         <v>78</v>
       </c>
       <c r="C32" s="16">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D32" s="17">
-        <v>-0.54</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="E32" s="16">
         <v>0</v>
@@ -2364,7 +2364,7 @@
         <v>78</v>
       </c>
       <c r="H32" s="16">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="I32" s="16">
         <v>0</v>
@@ -2422,19 +2422,19 @@
         <v>42</v>
       </c>
       <c r="B34" s="16">
+        <v>831</v>
+      </c>
+      <c r="C34" s="16">
+        <v>620</v>
+      </c>
+      <c r="D34" s="17">
+        <v>0.34</v>
+      </c>
+      <c r="E34" s="16">
         <v>824</v>
       </c>
-      <c r="C34" s="16">
-        <v>605</v>
-      </c>
-      <c r="D34" s="17">
-        <v>0.36</v>
-      </c>
-      <c r="E34" s="16">
-        <v>818</v>
-      </c>
       <c r="F34" s="16">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="G34" s="16">
         <v>7</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2460,22 +2460,22 @@
         <v>43</v>
       </c>
       <c r="B35" s="16">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="C35" s="16">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="D35" s="17">
-        <v>-4.8000000000000001E-2</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
       <c r="E35" s="16">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F35" s="16">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="G35" s="16">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H35" s="16">
         <v>75</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="16">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="L35" s="16">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2498,13 +2498,13 @@
         <v>44</v>
       </c>
       <c r="B36" s="16">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C36" s="16">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="D36" s="17">
-        <v>-0.44</v>
+        <v>-0.42</v>
       </c>
       <c r="E36" s="16">
         <v>0</v>
@@ -2513,10 +2513,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="16">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="H36" s="16">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="I36" s="16">
         <v>0</v>
@@ -2536,37 +2536,37 @@
         <v>45</v>
       </c>
       <c r="B37" s="16">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C37" s="16">
-        <v>527</v>
+        <v>611</v>
       </c>
       <c r="D37" s="17">
-        <v>-0.53</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="E37" s="16">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F37" s="16">
-        <v>454</v>
+        <v>531</v>
       </c>
       <c r="G37" s="16">
         <v>61</v>
       </c>
       <c r="H37" s="16">
+        <v>41</v>
+      </c>
+      <c r="I37" s="16">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>0</v>
+      </c>
+      <c r="L37" s="16">
         <v>39</v>
-      </c>
-      <c r="I37" s="16">
-        <v>0</v>
-      </c>
-      <c r="J37" s="16">
-        <v>0</v>
-      </c>
-      <c r="K37" s="16">
-        <v>0</v>
-      </c>
-      <c r="L37" s="16">
-        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2574,19 +2574,19 @@
         <v>46</v>
       </c>
       <c r="B38" s="16">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="C38" s="16">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="D38" s="17">
-        <v>-0.43</v>
+        <v>-0.4</v>
       </c>
       <c r="E38" s="16">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F38" s="16">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="G38" s="16">
         <v>0</v>
@@ -2601,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="K38" s="16">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L38" s="16">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2612,25 +2612,25 @@
         <v>47</v>
       </c>
       <c r="B39" s="16">
-        <v>1135</v>
+        <v>1279</v>
       </c>
       <c r="C39" s="16">
-        <v>1807</v>
+        <v>1848</v>
       </c>
       <c r="D39" s="17">
-        <v>-0.37</v>
+        <v>-0.31</v>
       </c>
       <c r="E39" s="16">
-        <v>927</v>
+        <v>1062</v>
       </c>
       <c r="F39" s="16">
-        <v>1466</v>
+        <v>1471</v>
       </c>
       <c r="G39" s="16">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="H39" s="16">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="I39" s="16">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>26</v>
       </c>
       <c r="L39" s="16">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2650,22 +2650,22 @@
         <v>48</v>
       </c>
       <c r="B40" s="16">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="C40" s="16">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D40" s="17">
-        <v>-8.1000000000000003E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E40" s="16">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="F40" s="16">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G40" s="16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H40" s="16">
         <v>16</v>
@@ -2688,19 +2688,19 @@
         <v>49</v>
       </c>
       <c r="B41" s="13">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="C41" s="13">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="D41" s="14">
-        <v>-9.5000000000000001E-2</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="E41" s="13">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="F41" s="13">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="G41" s="13">
         <v>10</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L41" s="13">
         <v>4</v>
@@ -2726,19 +2726,19 @@
         <v>50</v>
       </c>
       <c r="B42" s="16">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C42" s="16">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D42" s="17">
-        <v>-0.18</v>
+        <v>-0.19</v>
       </c>
       <c r="E42" s="16">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F42" s="16">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G42" s="16">
         <v>10</v>
@@ -2764,19 +2764,19 @@
         <v>51</v>
       </c>
       <c r="B43" s="16">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="C43" s="16">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="D43" s="17">
-        <v>-7.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E43" s="16">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="F43" s="16">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G43" s="16">
         <v>0</v>
@@ -2802,16 +2802,16 @@
         <v>52</v>
       </c>
       <c r="B44" s="16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C44" s="16">
         <v>45</v>
       </c>
       <c r="D44" s="17">
-        <v>-0.49</v>
+        <v>-0.46</v>
       </c>
       <c r="E44" s="16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F44" s="16">
         <v>45</v>
@@ -2840,19 +2840,19 @@
         <v>53</v>
       </c>
       <c r="B45" s="16">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="C45" s="16">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D45" s="17">
-        <v>-2.7E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E45" s="16">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="F45" s="16">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G45" s="16">
         <v>0</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L45" s="16">
         <v>4</v>
@@ -2878,25 +2878,25 @@
         <v>54</v>
       </c>
       <c r="B46" s="13">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C46" s="13">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="D46" s="14">
-        <v>-0.2</v>
+        <v>-0.23</v>
       </c>
       <c r="E46" s="13">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F46" s="13">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G46" s="13">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H46" s="13">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I46" s="13">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>55</v>
       </c>
       <c r="B47" s="16">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C47" s="16">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D47" s="17">
-        <v>-0.31</v>
+        <v>-0.35</v>
       </c>
       <c r="E47" s="16">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F47" s="16">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G47" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H47" s="16">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I47" s="16">
         <v>0</v>
@@ -2957,10 +2957,10 @@
         <v>53</v>
       </c>
       <c r="C48" s="16">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D48" s="17">
-        <v>-0.43</v>
+        <v>-0.44</v>
       </c>
       <c r="E48" s="16">
         <v>51</v>
@@ -2972,7 +2972,7 @@
         <v>2</v>
       </c>
       <c r="H48" s="16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I48" s="16">
         <v>0</v>
@@ -3030,19 +3030,19 @@
         <v>58</v>
       </c>
       <c r="B50" s="16">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C50" s="16">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D50" s="17">
-        <v>-0.18</v>
+        <v>-0.19</v>
       </c>
       <c r="E50" s="16">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F50" s="16">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G50" s="16">
         <v>47</v>
@@ -3068,25 +3068,25 @@
         <v>59</v>
       </c>
       <c r="B51" s="13">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="C51" s="13">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="D51" s="14">
-        <v>-5.7000000000000002E-2</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="E51" s="13">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="F51" s="13">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="G51" s="13">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H51" s="13">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -3106,19 +3106,19 @@
         <v>60</v>
       </c>
       <c r="B52" s="16">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C52" s="16">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D52" s="17">
-        <v>-3.5000000000000003E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E52" s="16">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F52" s="16">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G52" s="16">
         <v>0</v>
@@ -3220,13 +3220,13 @@
         <v>63</v>
       </c>
       <c r="B55" s="16">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C55" s="16">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D55" s="17">
-        <v>0.81</v>
+        <v>0.7</v>
       </c>
       <c r="E55" s="16">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="G55" s="16">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H55" s="16">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I55" s="16">
         <v>0</v>
@@ -3261,22 +3261,22 @@
         <v>21</v>
       </c>
       <c r="C56" s="16">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D56" s="17">
-        <v>-0.2</v>
+        <v>-0.24</v>
       </c>
       <c r="E56" s="16">
         <v>16</v>
       </c>
       <c r="F56" s="16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G56" s="16">
         <v>5</v>
       </c>
       <c r="H56" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I56" s="16">
         <v>0</v>
@@ -3296,19 +3296,19 @@
         <v>65</v>
       </c>
       <c r="B57" s="16">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C57" s="16">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D57" s="17">
-        <v>-0.26</v>
+        <v>-0.23</v>
       </c>
       <c r="E57" s="16">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F57" s="16">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G57" s="16">
         <v>0</v>
@@ -3334,19 +3334,19 @@
         <v>66</v>
       </c>
       <c r="B58" s="16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C58" s="16">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D58" s="17">
-        <v>-0.14000000000000001</v>
+        <v>-0.16</v>
       </c>
       <c r="E58" s="16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F58" s="16">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G58" s="16">
         <v>0</v>
@@ -3372,19 +3372,19 @@
         <v>67</v>
       </c>
       <c r="B59" s="16">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C59" s="16">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D59" s="17">
-        <v>3.6999999999999998E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E59" s="16">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F59" s="16">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G59" s="16">
         <v>0</v>
@@ -3410,19 +3410,19 @@
         <v>68</v>
       </c>
       <c r="B60" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C60" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D60" s="14">
-        <v>0.27</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E60" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G60" s="13">
         <v>13</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D62" s="17">
         <v>-1</v>
@@ -3498,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G62" s="16">
         <v>0</v>
@@ -3524,19 +3524,19 @@
         <v>71</v>
       </c>
       <c r="B63" s="16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C63" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" s="17">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="E63" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="16">
         <v>13</v>
@@ -3562,25 +3562,25 @@
         <v>72</v>
       </c>
       <c r="B64" s="13">
-        <v>7409</v>
+        <v>8145</v>
       </c>
       <c r="C64" s="13">
-        <v>7831</v>
+        <v>8645</v>
       </c>
       <c r="D64" s="14">
-        <v>-5.3999999999999999E-2</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="E64" s="13">
-        <v>5809</v>
+        <v>6383</v>
       </c>
       <c r="F64" s="13">
-        <v>6162</v>
+        <v>6813</v>
       </c>
       <c r="G64" s="13">
-        <v>1599</v>
+        <v>1762</v>
       </c>
       <c r="H64" s="13">
-        <v>1669</v>
+        <v>1832</v>
       </c>
       <c r="I64" s="13">
         <v>0</v>
@@ -3600,19 +3600,19 @@
         <v>73</v>
       </c>
       <c r="B65" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" s="16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D65" s="17">
-        <v>-0.52</v>
+        <v>-0.47</v>
       </c>
       <c r="E65" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F65" s="16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G65" s="16">
         <v>0</v>
@@ -3638,25 +3638,25 @@
         <v>74</v>
       </c>
       <c r="B66" s="16">
-        <v>7402</v>
+        <v>8136</v>
       </c>
       <c r="C66" s="16">
-        <v>7817</v>
+        <v>8629</v>
       </c>
       <c r="D66" s="17">
-        <v>-5.2999999999999999E-2</v>
+        <v>-5.7000000000000002E-2</v>
       </c>
       <c r="E66" s="16">
-        <v>5802</v>
+        <v>6374</v>
       </c>
       <c r="F66" s="16">
-        <v>6148</v>
+        <v>6797</v>
       </c>
       <c r="G66" s="16">
-        <v>1599</v>
+        <v>1762</v>
       </c>
       <c r="H66" s="16">
-        <v>1669</v>
+        <v>1832</v>
       </c>
       <c r="I66" s="16">
         <v>0</v>
@@ -3676,25 +3676,25 @@
         <v>75</v>
       </c>
       <c r="B67" s="13">
-        <v>13736</v>
+        <v>15286</v>
       </c>
       <c r="C67" s="13">
-        <v>20358</v>
+        <v>22664</v>
       </c>
       <c r="D67" s="14">
         <v>-0.33</v>
       </c>
       <c r="E67" s="13">
-        <v>9937</v>
+        <v>11011</v>
       </c>
       <c r="F67" s="13">
-        <v>12151</v>
+        <v>13537</v>
       </c>
       <c r="G67" s="13">
-        <v>3553</v>
+        <v>3994</v>
       </c>
       <c r="H67" s="13">
-        <v>7889</v>
+        <v>8780</v>
       </c>
       <c r="I67" s="13">
         <v>0</v>
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="K67" s="13">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="L67" s="13">
-        <v>318</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="174.95" customHeight="1" x14ac:dyDescent="0.25">
